--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H2">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I2">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J2">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.174733</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N2">
-        <v>0.524199</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O2">
-        <v>0.05882867859784574</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P2">
-        <v>0.05882867859784573</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q2">
-        <v>0.1702634463486667</v>
+        <v>0.14754703363</v>
       </c>
       <c r="R2">
-        <v>1.532371017138</v>
+        <v>1.32792330267</v>
       </c>
       <c r="S2">
-        <v>0.001905797967409401</v>
+        <v>0.002965814058464739</v>
       </c>
       <c r="T2">
-        <v>0.001905797967409401</v>
+        <v>0.00296581405846474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H3">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I3">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J3">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>1.448557</v>
       </c>
       <c r="O3">
-        <v>0.1625655412995058</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P3">
-        <v>0.1625655412995058</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q3">
-        <v>0.4705012925482223</v>
+        <v>0.30838329973</v>
       </c>
       <c r="R3">
-        <v>4.234511632934001</v>
+        <v>2.77544969757</v>
       </c>
       <c r="S3">
-        <v>0.005266429326032021</v>
+        <v>0.006198752379044893</v>
       </c>
       <c r="T3">
-        <v>0.005266429326032022</v>
+        <v>0.006198752379044895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H4">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I4">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J4">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.28034</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N4">
-        <v>6.841019999999999</v>
+        <v>2.835181</v>
       </c>
       <c r="O4">
-        <v>0.7677392876778373</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P4">
-        <v>0.7677392876778373</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q4">
-        <v>2.222010423026667</v>
+        <v>0.60358168309</v>
       </c>
       <c r="R4">
-        <v>19.99809380724</v>
+        <v>5.432235147810001</v>
       </c>
       <c r="S4">
-        <v>0.02487147440381813</v>
+        <v>0.01213247733349318</v>
       </c>
       <c r="T4">
-        <v>0.02487147440381813</v>
+        <v>0.01213247733349318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,57 +717,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H5">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I5">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J5">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02610233333333334</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N5">
-        <v>0.078307</v>
+        <v>0.077791</v>
       </c>
       <c r="O5">
-        <v>0.008788069673848112</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P5">
-        <v>0.008788069673848112</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q5">
-        <v>0.02543465304822223</v>
+        <v>0.01656092599</v>
       </c>
       <c r="R5">
-        <v>0.228911877434</v>
+        <v>0.14904833391</v>
       </c>
       <c r="S5">
-        <v>0.0002846959292824442</v>
+        <v>0.0003328879335216227</v>
       </c>
       <c r="T5">
-        <v>0.0002846959292824442</v>
+        <v>0.0003328879335216228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9744206666666667</v>
+        <v>28.021538</v>
       </c>
       <c r="H6">
-        <v>2.923262</v>
+        <v>84.06461399999999</v>
       </c>
       <c r="I6">
-        <v>0.0323957296480766</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J6">
-        <v>0.03239572964807661</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.006173333333333333</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N6">
-        <v>0.01852</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O6">
-        <v>0.002078422750963094</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P6">
-        <v>0.002078422750963094</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q6">
-        <v>0.006015423582222222</v>
+        <v>6.473601092348666</v>
       </c>
       <c r="R6">
-        <v>0.05413881224</v>
+        <v>58.262409831138</v>
       </c>
       <c r="S6">
-        <v>6.733202153461205E-05</v>
+        <v>0.1301245891308562</v>
       </c>
       <c r="T6">
-        <v>6.733202153461206E-05</v>
+        <v>0.1301245891308562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I7">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J7">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.174733</v>
+        <v>0.4828523333333334</v>
       </c>
       <c r="N7">
-        <v>0.524199</v>
+        <v>1.448557</v>
       </c>
       <c r="O7">
-        <v>0.05882867859784574</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P7">
-        <v>0.05882867859784573</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q7">
-        <v>4.896287399354</v>
+        <v>13.53026500688867</v>
       </c>
       <c r="R7">
-        <v>44.06658659418599</v>
+        <v>121.772385061998</v>
       </c>
       <c r="S7">
-        <v>0.05480527249772885</v>
+        <v>0.271969209986373</v>
       </c>
       <c r="T7">
-        <v>0.05480527249772885</v>
+        <v>0.2719692099863731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +915,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I8">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J8">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4828523333333334</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N8">
-        <v>1.448557</v>
+        <v>2.835181</v>
       </c>
       <c r="O8">
-        <v>0.1625655412995058</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P8">
-        <v>0.1625655412995058</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q8">
-        <v>13.53026500688867</v>
+        <v>26.48204404279267</v>
       </c>
       <c r="R8">
-        <v>121.772385061998</v>
+        <v>238.338396385134</v>
       </c>
       <c r="S8">
-        <v>0.1514473723022986</v>
+        <v>0.5323103866388241</v>
       </c>
       <c r="T8">
-        <v>0.1514473723022986</v>
+        <v>0.5323103866388241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +977,45 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I9">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J9">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.28034</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N9">
-        <v>6.841019999999999</v>
+        <v>0.077791</v>
       </c>
       <c r="O9">
-        <v>0.7677392876778373</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P9">
-        <v>0.7677392876778373</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q9">
-        <v>63.89863396291999</v>
+        <v>0.7266078208526665</v>
       </c>
       <c r="R9">
-        <v>575.0877056662799</v>
+        <v>6.539470387673999</v>
       </c>
       <c r="S9">
-        <v>0.715232126086492</v>
+        <v>0.01460540166113584</v>
       </c>
       <c r="T9">
-        <v>0.715232126086492</v>
+        <v>0.01460540166113584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.021538</v>
+        <v>0.866931</v>
       </c>
       <c r="H10">
-        <v>84.06461399999999</v>
+        <v>2.600793</v>
       </c>
       <c r="I10">
-        <v>0.9316080830640275</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J10">
-        <v>0.9316080830640276</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02610233333333334</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N10">
-        <v>0.078307</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O10">
-        <v>0.008788069673848112</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P10">
-        <v>0.008788069673848112</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q10">
-        <v>0.7314275253886666</v>
+        <v>0.200280422459</v>
       </c>
       <c r="R10">
-        <v>6.582847728498</v>
+        <v>1.802523802131</v>
       </c>
       <c r="S10">
-        <v>0.008187036742686752</v>
+        <v>0.004025797591117314</v>
       </c>
       <c r="T10">
-        <v>0.008187036742686754</v>
+        <v>0.004025797591117314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.021538</v>
+        <v>0.866931</v>
       </c>
       <c r="H11">
-        <v>84.06461399999999</v>
+        <v>2.600793</v>
       </c>
       <c r="I11">
-        <v>0.9316080830640275</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J11">
-        <v>0.9316080830640276</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.006173333333333333</v>
+        <v>0.4828523333333334</v>
       </c>
       <c r="N11">
-        <v>0.01852</v>
+        <v>1.448557</v>
       </c>
       <c r="O11">
-        <v>0.002078422750963094</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P11">
-        <v>0.002078422750963094</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q11">
-        <v>0.1729862945866666</v>
+        <v>0.418599656189</v>
       </c>
       <c r="R11">
-        <v>1.55687665128</v>
+        <v>3.767396905701</v>
       </c>
       <c r="S11">
-        <v>0.001936275434821391</v>
+        <v>0.008414189798671879</v>
       </c>
       <c r="T11">
-        <v>0.001936275434821391</v>
+        <v>0.008414189798671879</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H12">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I12">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J12">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.174733</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N12">
-        <v>0.524199</v>
+        <v>2.835181</v>
       </c>
       <c r="O12">
-        <v>0.05882867859784574</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P12">
-        <v>0.05882867859784573</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q12">
-        <v>0.1891865060496667</v>
+        <v>0.8193020998370002</v>
       </c>
       <c r="R12">
-        <v>1.702678554447</v>
+        <v>7.373718898533001</v>
       </c>
       <c r="S12">
-        <v>0.002117608132707485</v>
+        <v>0.01646863122927737</v>
       </c>
       <c r="T12">
-        <v>0.002117608132707485</v>
+        <v>0.01646863122927737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,232 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H13">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I13">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J13">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4828523333333334</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N13">
-        <v>1.448557</v>
+        <v>0.077791</v>
       </c>
       <c r="O13">
-        <v>0.1625655412995058</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P13">
-        <v>0.1625655412995058</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q13">
-        <v>0.5227927516912223</v>
+        <v>0.022479809807</v>
       </c>
       <c r="R13">
-        <v>4.705134765221</v>
+        <v>0.202318288263</v>
       </c>
       <c r="S13">
-        <v>0.005851739671175176</v>
+        <v>0.0004518622592196815</v>
       </c>
       <c r="T13">
-        <v>0.005851739671175176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.082717666666667</v>
-      </c>
-      <c r="H14">
-        <v>3.248153</v>
-      </c>
-      <c r="I14">
-        <v>0.03599618728789584</v>
-      </c>
-      <c r="J14">
-        <v>0.03599618728789584</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.28034</v>
-      </c>
-      <c r="N14">
-        <v>6.841019999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.7677392876778373</v>
-      </c>
-      <c r="P14">
-        <v>0.7677392876778373</v>
-      </c>
-      <c r="Q14">
-        <v>2.468964404006667</v>
-      </c>
-      <c r="R14">
-        <v>22.22067963606</v>
-      </c>
-      <c r="S14">
-        <v>0.02763568718752717</v>
-      </c>
-      <c r="T14">
-        <v>0.02763568718752717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.082717666666667</v>
-      </c>
-      <c r="H15">
-        <v>3.248153</v>
-      </c>
-      <c r="I15">
-        <v>0.03599618728789584</v>
-      </c>
-      <c r="J15">
-        <v>0.03599618728789584</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.02610233333333334</v>
-      </c>
-      <c r="N15">
-        <v>0.078307</v>
-      </c>
-      <c r="O15">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="P15">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="Q15">
-        <v>0.02826145744122223</v>
-      </c>
-      <c r="R15">
-        <v>0.254353116971</v>
-      </c>
-      <c r="S15">
-        <v>0.0003163370018789143</v>
-      </c>
-      <c r="T15">
-        <v>0.0003163370018789143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.082717666666667</v>
-      </c>
-      <c r="H16">
-        <v>3.248153</v>
-      </c>
-      <c r="I16">
-        <v>0.03599618728789584</v>
-      </c>
-      <c r="J16">
-        <v>0.03599618728789584</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.006173333333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.01852</v>
-      </c>
-      <c r="O16">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="P16">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="Q16">
-        <v>0.006683977062222222</v>
-      </c>
-      <c r="R16">
-        <v>0.06015579355999999</v>
-      </c>
-      <c r="S16">
-        <v>7.481529460709123E-05</v>
-      </c>
-      <c r="T16">
-        <v>7.481529460709123E-05</v>
+        <v>0.0004518622592196815</v>
       </c>
     </row>
   </sheetData>
